--- a/public/files/template-import-users.xlsx
+++ b/public/files/template-import-users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sappeuting-emas-app\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E692BFA2-5909-4441-8CC7-6EDBA7BBAB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD39ABF6-E146-4766-A112-EEE5020D6C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42D94AD7-578A-452B-B58F-E46ACDD62886}"/>
   </bookViews>
@@ -91,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,12 +101,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,9 +123,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -142,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +452,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
